--- a/Pos_data_stat/position/top14-part3.xlsx
+++ b/Pos_data_stat/position/top14-part3.xlsx
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9542</v>
+        <v>9550</v>
       </c>
       <c r="B2" t="n">
-        <v>3269</v>
+        <v>3261</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>

--- a/Pos_data_stat/position/top14-part3.xlsx
+++ b/Pos_data_stat/position/top14-part3.xlsx
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9550</v>
+        <v>9542</v>
       </c>
       <c r="B2" t="n">
-        <v>3261</v>
+        <v>3269</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
